--- a/data/mn_data_pull.xlsx
+++ b/data/mn_data_pull.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1100" yWindow="700" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="county_decile" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="6">
   <si>
     <t>county_fips</t>
-  </si>
-  <si>
-    <t>hh_mail_decile</t>
   </si>
   <si>
     <t>stat</t>
   </si>
   <si>
-    <t>ts_homeowner</t>
+    <t>group_label</t>
+  </si>
+  <si>
+    <t>group_value</t>
+  </si>
+  <si>
+    <t>homeowner</t>
+  </si>
+  <si>
+    <t>decile</t>
   </si>
 </sst>
 </file>
@@ -354,4378 +360,5569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C397"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>27003</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>-99</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>112813</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>27003</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>13316</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27003</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>14932</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>27003</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>14873</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>27003</v>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>13377</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>27003</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>12228</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>27003</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>10539</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>27003</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>9651</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>27003</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>8548</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>27003</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7543</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>27003</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7806</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27009</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
         <v>-99</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>13580</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27009</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2420</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>27009</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>27009</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1650</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>27009</v>
       </c>
-      <c r="B17">
-        <v>4</v>
+      <c r="B17" t="s">
+        <v>5</v>
       </c>
       <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
         <v>1357</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>27009</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
         <v>1262</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>27009</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>27009</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1044</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>27009</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27009</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>830</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>27009</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>874</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27013</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
         <v>-99</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>21880</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>27013</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2814</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27013</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3046</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27013</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27013</v>
       </c>
-      <c r="B28">
-        <v>4</v>
+      <c r="B28" t="s">
+        <v>5</v>
       </c>
       <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
         <v>2806</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27013</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
         <v>2307</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27013</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
         <v>6</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1979</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27013</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>7</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1836</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>27013</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1535</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>27013</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1187</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27013</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1260</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27015</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
         <v>-99</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>9587</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27015</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1638</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27015</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1303</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>27015</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1218</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>27015</v>
       </c>
-      <c r="B39">
-        <v>4</v>
+      <c r="B39" t="s">
+        <v>5</v>
       </c>
       <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>1028</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>27015</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
         <v>823</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>27015</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
         <v>6</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>810</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>27015</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
         <v>7</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>650</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>27015</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
         <v>8</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>27015</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
         <v>9</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>562</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>27015</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>915</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>27019</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
         <v>-99</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>33081</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>27019</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>8626</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>27019</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
         <v>2</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>6014</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>27019</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>4352</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>27019</v>
       </c>
-      <c r="B50">
-        <v>4</v>
+      <c r="B50" t="s">
+        <v>5</v>
       </c>
       <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
         <v>3073</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>27019</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
         <v>2353</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>27019</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>2009</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>27019</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
         <v>7</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>1792</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>27019</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
         <v>8</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>1675</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>27019</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
         <v>9</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>1498</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>27019</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
         <v>10</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>1689</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>27025</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
         <v>-99</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>16062</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>27025</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>4359</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>27025</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>3168</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>27025</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
         <v>3</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>2028</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>27025</v>
       </c>
-      <c r="B61">
-        <v>4</v>
+      <c r="B61" t="s">
+        <v>5</v>
       </c>
       <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
         <v>1488</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>27025</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
         <v>1211</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>27025</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1014</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>27025</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
         <v>7</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>834</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>27025</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
         <v>8</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>618</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>27025</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
         <v>9</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>547</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>27025</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
         <v>10</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>795</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>27037</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
         <v>-99</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>135336</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>27037</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>16417</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>27037</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
         <v>2</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>18478</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>27037</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
         <v>3</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>17867</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>27037</v>
       </c>
-      <c r="B72">
-        <v>4</v>
+      <c r="B72" t="s">
+        <v>5</v>
       </c>
       <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
         <v>15651</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>27037</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
         <v>13588</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>27037</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
         <v>6</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>12104</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>27037</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
         <v>7</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>11234</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>27037</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
         <v>8</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>10699</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>27037</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
         <v>9</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>9768</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>27037</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
         <v>10</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>9530</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>27039</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
         <v>-99</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>6751</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>27039</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
         <v>1</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>1846</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>27039</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
         <v>2</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>1214</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>27039</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
         <v>3</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>811</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>27039</v>
       </c>
-      <c r="B83">
-        <v>4</v>
+      <c r="B83" t="s">
+        <v>5</v>
       </c>
       <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
         <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>27039</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
         <v>512</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>27039</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
         <v>6</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>27039</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
         <v>7</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>353</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>27039</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
         <v>8</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>320</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>27039</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
         <v>9</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>27039</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
         <v>10</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>27041</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
         <v>-99</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>13705</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>27041</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
         <v>1</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>3193</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>27041</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
         <v>2</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>2060</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>27041</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1540</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>27041</v>
       </c>
-      <c r="B94">
-        <v>4</v>
+      <c r="B94" t="s">
+        <v>5</v>
       </c>
       <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
         <v>1253</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>27041</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
         <v>1062</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>27041</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
         <v>6</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>928</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>27041</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
         <v>7</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>934</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>27041</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
         <v>8</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>824</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>27041</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
         <v>9</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>710</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>27041</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
         <v>10</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1201</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>27043</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
         <v>-99</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>5192</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>27043</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
         <v>1</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>692</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>27043</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
         <v>2</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>667</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>27043</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
         <v>3</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>642</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>27043</v>
       </c>
-      <c r="B105">
-        <v>4</v>
+      <c r="B105" t="s">
+        <v>5</v>
       </c>
       <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
         <v>578</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>27043</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
         <v>447</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>27043</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
         <v>6</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>27043</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
         <v>7</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>420</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>27043</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
         <v>8</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>384</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>27043</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
         <v>9</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>27043</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
         <v>10</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>607</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>27047</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
         <v>-99</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>10915</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>27047</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
         <v>1</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>1350</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>27047</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
         <v>2</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1389</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>27047</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
         <v>3</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1302</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>27047</v>
       </c>
-      <c r="B116">
-        <v>4</v>
+      <c r="B116" t="s">
+        <v>5</v>
       </c>
       <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
         <v>1156</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>27047</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
         <v>1028</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>27047</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
         <v>6</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>931</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>27047</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
         <v>7</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>830</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>27047</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
         <v>8</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>863</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>27047</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
         <v>9</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>775</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>27047</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
         <v>10</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>1291</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>27051</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
         <v>-99</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>2153</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>27051</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124">
         <v>1</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>328</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>27051</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
         <v>2</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>321</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>27051</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
         <v>3</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>262</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>27051</v>
       </c>
-      <c r="B127">
-        <v>4</v>
+      <c r="B127" t="s">
+        <v>5</v>
       </c>
       <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>27051</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
         <v>197</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>27051</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
         <v>6</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>27051</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
         <v>7</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>27051</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
         <v>8</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>27051</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
         <v>9</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>27051</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
         <v>10</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>27053</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
         <v>-99</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>435456</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>27053</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
         <v>1</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>7440</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>27053</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
         <v>2</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>16326</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>27053</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
         <v>3</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>26494</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>27053</v>
       </c>
-      <c r="B138">
-        <v>4</v>
+      <c r="B138" t="s">
+        <v>5</v>
       </c>
       <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138">
         <v>37544</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>27053</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
         <v>46649</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>27053</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
         <v>6</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>53401</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>27053</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
         <v>7</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>57617</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>27053</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
         <v>8</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>61906</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>27053</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
         <v>9</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>66820</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>27053</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
         <v>10</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>61259</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>27059</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
         <v>-99</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>11722</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>27059</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
         <v>1</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>2150</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>27059</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
         <v>2</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>2184</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>27059</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
         <v>3</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>1705</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>27059</v>
       </c>
-      <c r="B149">
-        <v>4</v>
+      <c r="B149" t="s">
+        <v>5</v>
       </c>
       <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149">
         <v>1233</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>27059</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150">
         <v>1025</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>27059</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
         <v>6</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>813</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>27059</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
         <v>7</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>716</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>27059</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
         <v>8</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>635</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>27059</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
         <v>9</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>503</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>27059</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
         <v>10</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>758</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>27067</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
         <v>-99</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>14014</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>27067</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
         <v>1</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>2860</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>27067</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
         <v>2</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>1927</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>27067</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
         <v>3</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>1571</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>27067</v>
       </c>
-      <c r="B160">
-        <v>4</v>
+      <c r="B160" t="s">
+        <v>5</v>
       </c>
       <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
         <v>1395</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>27067</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161">
         <v>1239</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>27067</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
         <v>6</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>1128</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>27067</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163">
         <v>7</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>1006</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>27067</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164">
         <v>8</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>871</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>27067</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
         <v>9</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>862</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>27067</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166">
         <v>10</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>1155</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>27079</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167">
         <v>-99</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>9738</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>27079</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168">
         <v>1</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>1465</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>27079</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169">
         <v>2</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>1585</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>27079</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170">
         <v>3</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>1324</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>27079</v>
       </c>
-      <c r="B171">
-        <v>4</v>
+      <c r="B171" t="s">
+        <v>5</v>
       </c>
       <c r="C171">
+        <v>4</v>
+      </c>
+      <c r="D171">
         <v>1146</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>27079</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172">
         <v>910</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>27079</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173">
         <v>6</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>794</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>27079</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174">
         <v>7</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>689</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>27079</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
         <v>8</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>571</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>27079</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176">
         <v>9</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>480</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>27079</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177">
         <v>10</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>774</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>27085</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178">
         <v>-99</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>12706</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>27085</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
         <v>1</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>1764</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>27085</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
         <v>2</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>1521</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>27085</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181">
         <v>3</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>1521</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>27085</v>
       </c>
-      <c r="B182">
-        <v>4</v>
+      <c r="B182" t="s">
+        <v>5</v>
       </c>
       <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
         <v>1410</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>27085</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183">
         <v>1191</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>27085</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
         <v>6</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>1041</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>27085</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185">
         <v>7</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>890</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>27085</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186">
         <v>8</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>904</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>27085</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
         <v>9</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>924</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>27085</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188">
         <v>10</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <v>1540</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>27091</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189">
         <v>-99</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>7405</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>27091</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190">
         <v>1</v>
       </c>
-      <c r="C190">
+      <c r="D190">
         <v>1638</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>27091</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191">
         <v>2</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>1134</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>27091</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192">
         <v>3</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>903</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>27091</v>
       </c>
-      <c r="B193">
-        <v>4</v>
+      <c r="B193" t="s">
+        <v>5</v>
       </c>
       <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193">
         <v>675</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>27091</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194">
+        <v>5</v>
+      </c>
+      <c r="D194">
         <v>609</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>27091</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195">
         <v>6</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>27091</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196">
         <v>7</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>470</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>27091</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197">
         <v>8</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>411</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>27091</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198">
         <v>9</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>357</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>27091</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199">
         <v>10</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>697</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>27093</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200">
         <v>-99</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>8044</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>27093</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
         <v>1</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>1438</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>27093</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202">
         <v>2</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>1186</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>27093</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203">
         <v>3</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>993</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>27093</v>
       </c>
-      <c r="B204">
-        <v>4</v>
+      <c r="B204" t="s">
+        <v>5</v>
       </c>
       <c r="C204">
+        <v>4</v>
+      </c>
+      <c r="D204">
         <v>854</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>27093</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205">
+        <v>5</v>
+      </c>
+      <c r="D205">
         <v>662</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>27093</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206">
         <v>6</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>582</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>27093</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207">
         <v>7</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>527</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>27093</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
         <v>8</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>549</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>27093</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209">
         <v>9</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>27093</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210">
         <v>10</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>794</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>27095</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211">
         <v>-99</v>
       </c>
-      <c r="C211">
+      <c r="D211">
         <v>8844</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>27095</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212">
         <v>1</v>
       </c>
-      <c r="C212">
+      <c r="D212">
         <v>1563</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>27095</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213">
         <v>2</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>1282</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>27095</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
         <v>3</v>
       </c>
-      <c r="C214">
+      <c r="D214">
         <v>1049</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>27095</v>
       </c>
-      <c r="B215">
-        <v>4</v>
+      <c r="B215" t="s">
+        <v>5</v>
       </c>
       <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215">
         <v>906</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>27095</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216">
+        <v>5</v>
+      </c>
+      <c r="D216">
         <v>797</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>27095</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217">
         <v>6</v>
       </c>
-      <c r="C217">
+      <c r="D217">
         <v>672</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>27095</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218">
         <v>7</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>628</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>27095</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219">
         <v>8</v>
       </c>
-      <c r="C219">
+      <c r="D219">
         <v>568</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>27095</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220">
         <v>9</v>
       </c>
-      <c r="C220">
+      <c r="D220">
         <v>554</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>27095</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221">
         <v>10</v>
       </c>
-      <c r="C221">
+      <c r="D221">
         <v>825</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>27099</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222">
         <v>-99</v>
       </c>
-      <c r="C222">
+      <c r="D222">
         <v>12563</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>27099</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223">
         <v>1</v>
       </c>
-      <c r="C223">
+      <c r="D223">
         <v>800</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>27099</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224">
         <v>2</v>
       </c>
-      <c r="C224">
+      <c r="D224">
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>27099</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
         <v>3</v>
       </c>
-      <c r="C225">
+      <c r="D225">
         <v>1230</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>27099</v>
       </c>
-      <c r="B226">
-        <v>4</v>
+      <c r="B226" t="s">
+        <v>5</v>
       </c>
       <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226">
         <v>1373</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>27099</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227">
         <v>1450</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>27099</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228">
         <v>6</v>
       </c>
-      <c r="C228">
+      <c r="D228">
         <v>1391</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>27099</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229">
         <v>7</v>
       </c>
-      <c r="C229">
+      <c r="D229">
         <v>1277</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>27099</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230">
         <v>8</v>
       </c>
-      <c r="C230">
+      <c r="D230">
         <v>1162</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>27099</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231">
         <v>9</v>
       </c>
-      <c r="C231">
+      <c r="D231">
         <v>1124</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>27099</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232">
         <v>10</v>
       </c>
-      <c r="C232">
+      <c r="D232">
         <v>1645</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>27103</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233">
         <v>-99</v>
       </c>
-      <c r="C233">
+      <c r="D233">
         <v>11220</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>27103</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234">
         <v>1</v>
       </c>
-      <c r="C234">
+      <c r="D234">
         <v>1029</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>27103</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235">
         <v>2</v>
       </c>
-      <c r="C235">
+      <c r="D235">
         <v>1352</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>27103</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236">
         <v>3</v>
       </c>
-      <c r="C236">
+      <c r="D236">
         <v>1388</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>27103</v>
       </c>
-      <c r="B237">
-        <v>4</v>
+      <c r="B237" t="s">
+        <v>5</v>
       </c>
       <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237">
         <v>1329</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>27103</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238">
         <v>1250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>27103</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239">
         <v>6</v>
       </c>
-      <c r="C239">
+      <c r="D239">
         <v>1026</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>27103</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
         <v>7</v>
       </c>
-      <c r="C240">
+      <c r="D240">
         <v>984</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>27103</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241">
         <v>8</v>
       </c>
-      <c r="C241">
+      <c r="D241">
         <v>994</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>27103</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242">
         <v>9</v>
       </c>
-      <c r="C242">
+      <c r="D242">
         <v>806</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>27103</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243">
         <v>10</v>
       </c>
-      <c r="C243">
+      <c r="D243">
         <v>1062</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>27121</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244">
         <v>-99</v>
       </c>
-      <c r="C244">
+      <c r="D244">
         <v>4065</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>27121</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245">
         <v>1</v>
       </c>
-      <c r="C245">
+      <c r="D245">
         <v>864</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>27121</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246">
         <v>2</v>
       </c>
-      <c r="C246">
+      <c r="D246">
         <v>624</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>27121</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247">
         <v>3</v>
       </c>
-      <c r="C247">
+      <c r="D247">
         <v>479</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>27121</v>
       </c>
-      <c r="B248">
-        <v>4</v>
+      <c r="B248" t="s">
+        <v>5</v>
       </c>
       <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248">
         <v>376</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>27121</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="s">
         <v>5</v>
       </c>
       <c r="C249">
+        <v>5</v>
+      </c>
+      <c r="D249">
         <v>348</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>27121</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250">
         <v>6</v>
       </c>
-      <c r="C250">
+      <c r="D250">
         <v>293</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>27121</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251">
         <v>7</v>
       </c>
-      <c r="C251">
+      <c r="D251">
         <v>277</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>27121</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252">
         <v>8</v>
       </c>
-      <c r="C252">
+      <c r="D252">
         <v>239</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>27121</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253">
         <v>9</v>
       </c>
-      <c r="C253">
+      <c r="D253">
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>27121</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254">
         <v>10</v>
       </c>
-      <c r="C254">
+      <c r="D254">
         <v>333</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>27123</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255">
         <v>-99</v>
       </c>
-      <c r="C255">
+      <c r="D255">
         <v>174395</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>27123</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256">
         <v>1</v>
       </c>
-      <c r="C256">
+      <c r="D256">
         <v>2762</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>27123</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257">
         <v>2</v>
       </c>
-      <c r="C257">
+      <c r="D257">
         <v>6814</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>27123</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258">
         <v>3</v>
       </c>
-      <c r="C258">
+      <c r="D258">
         <v>10714</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>27123</v>
       </c>
-      <c r="B259">
-        <v>4</v>
+      <c r="B259" t="s">
+        <v>5</v>
       </c>
       <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259">
         <v>15174</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>27123</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260">
+        <v>5</v>
+      </c>
+      <c r="D260">
         <v>19352</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>27123</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261">
         <v>6</v>
       </c>
-      <c r="C261">
+      <c r="D261">
         <v>22446</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>27123</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262">
         <v>7</v>
       </c>
-      <c r="C262">
+      <c r="D262">
         <v>23919</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>27123</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263">
         <v>8</v>
       </c>
-      <c r="C263">
+      <c r="D263">
         <v>24425</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>27123</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264">
         <v>9</v>
       </c>
-      <c r="C264">
+      <c r="D264">
         <v>26339</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>27123</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265">
         <v>10</v>
       </c>
-      <c r="C265">
+      <c r="D265">
         <v>22450</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>27129</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266">
         <v>-99</v>
       </c>
-      <c r="C266">
+      <c r="D266">
         <v>5004</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>27129</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267">
         <v>1</v>
       </c>
-      <c r="C267">
+      <c r="D267">
         <v>1079</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>27129</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268">
         <v>2</v>
       </c>
-      <c r="C268">
+      <c r="D268">
         <v>754</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>27129</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269">
         <v>3</v>
       </c>
-      <c r="C269">
+      <c r="D269">
         <v>592</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>27129</v>
       </c>
-      <c r="B270">
-        <v>4</v>
+      <c r="B270" t="s">
+        <v>5</v>
       </c>
       <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="D270">
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>27129</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271">
+        <v>5</v>
+      </c>
+      <c r="D271">
         <v>412</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>27129</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272">
         <v>6</v>
       </c>
-      <c r="C272">
+      <c r="D272">
         <v>358</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>27129</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273">
         <v>7</v>
       </c>
-      <c r="C273">
+      <c r="D273">
         <v>333</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>27129</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274">
         <v>8</v>
       </c>
-      <c r="C274">
+      <c r="D274">
         <v>277</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>27129</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275">
         <v>9</v>
       </c>
-      <c r="C275">
+      <c r="D275">
         <v>206</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>27129</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276">
         <v>10</v>
       </c>
-      <c r="C276">
+      <c r="D276">
         <v>471</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>27131</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277">
         <v>-99</v>
       </c>
-      <c r="C277">
+      <c r="D277">
         <v>16908</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>27131</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278">
         <v>1</v>
       </c>
-      <c r="C278">
+      <c r="D278">
         <v>2410</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>27131</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279">
         <v>2</v>
       </c>
-      <c r="C279">
+      <c r="D279">
         <v>2413</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>27131</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280">
         <v>3</v>
       </c>
-      <c r="C280">
+      <c r="D280">
         <v>2036</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>27131</v>
       </c>
-      <c r="B281">
-        <v>4</v>
+      <c r="B281" t="s">
+        <v>5</v>
       </c>
       <c r="C281">
+        <v>4</v>
+      </c>
+      <c r="D281">
         <v>1886</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>27131</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="s">
         <v>5</v>
       </c>
       <c r="C282">
+        <v>5</v>
+      </c>
+      <c r="D282">
         <v>1779</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>27131</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283">
         <v>6</v>
       </c>
-      <c r="C283">
+      <c r="D283">
         <v>1494</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>27131</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284">
         <v>7</v>
       </c>
-      <c r="C284">
+      <c r="D284">
         <v>1348</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>27131</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285">
         <v>8</v>
       </c>
-      <c r="C285">
+      <c r="D285">
         <v>1260</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>27131</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286">
         <v>9</v>
       </c>
-      <c r="C286">
+      <c r="D286">
         <v>940</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>27131</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287">
         <v>10</v>
       </c>
-      <c r="C287">
+      <c r="D287">
         <v>1342</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>27139</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288">
         <v>-99</v>
       </c>
-      <c r="C288">
+      <c r="D288">
         <v>44717</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>27139</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289">
         <v>1</v>
       </c>
-      <c r="C289">
+      <c r="D289">
         <v>8771</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>27139</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290">
         <v>2</v>
       </c>
-      <c r="C290">
+      <c r="D290">
         <v>8012</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>27139</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291">
         <v>3</v>
       </c>
-      <c r="C291">
+      <c r="D291">
         <v>6626</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>27139</v>
       </c>
-      <c r="B292">
-        <v>4</v>
+      <c r="B292" t="s">
+        <v>5</v>
       </c>
       <c r="C292">
+        <v>4</v>
+      </c>
+      <c r="D292">
         <v>5243</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>27139</v>
       </c>
-      <c r="B293">
+      <c r="B293" t="s">
         <v>5</v>
       </c>
       <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293">
         <v>3768</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>27139</v>
       </c>
-      <c r="B294">
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294">
         <v>6</v>
       </c>
-      <c r="C294">
+      <c r="D294">
         <v>2979</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>27139</v>
       </c>
-      <c r="B295">
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295">
         <v>7</v>
       </c>
-      <c r="C295">
+      <c r="D295">
         <v>2569</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>27139</v>
       </c>
-      <c r="B296">
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296">
         <v>8</v>
       </c>
-      <c r="C296">
+      <c r="D296">
         <v>2371</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>27139</v>
       </c>
-      <c r="B297">
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297">
         <v>9</v>
       </c>
-      <c r="C297">
+      <c r="D297">
         <v>2079</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>27139</v>
       </c>
-      <c r="B298">
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298">
         <v>10</v>
       </c>
-      <c r="C298">
+      <c r="D298">
         <v>2299</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>27141</v>
       </c>
-      <c r="B299">
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299">
         <v>-99</v>
       </c>
-      <c r="C299">
+      <c r="D299">
         <v>29541</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>27141</v>
       </c>
-      <c r="B300">
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300">
         <v>1</v>
       </c>
-      <c r="C300">
+      <c r="D300">
         <v>8984</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>27141</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301">
         <v>2</v>
       </c>
-      <c r="C301">
+      <c r="D301">
         <v>5498</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>27141</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302">
         <v>3</v>
       </c>
-      <c r="C302">
+      <c r="D302">
         <v>3492</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>27141</v>
       </c>
-      <c r="B303">
-        <v>4</v>
+      <c r="B303" t="s">
+        <v>5</v>
       </c>
       <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303">
         <v>2535</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>27141</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="s">
         <v>5</v>
       </c>
       <c r="C304">
+        <v>5</v>
+      </c>
+      <c r="D304">
         <v>1972</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>27141</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305">
         <v>6</v>
       </c>
-      <c r="C305">
+      <c r="D305">
         <v>1722</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>27141</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306">
         <v>7</v>
       </c>
-      <c r="C306">
+      <c r="D306">
         <v>1513</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>27141</v>
       </c>
-      <c r="B307">
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307">
         <v>8</v>
       </c>
-      <c r="C307">
+      <c r="D307">
         <v>1319</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>27141</v>
       </c>
-      <c r="B308">
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308">
         <v>9</v>
       </c>
-      <c r="C308">
+      <c r="D308">
         <v>1106</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>27141</v>
       </c>
-      <c r="B309">
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309">
         <v>10</v>
       </c>
-      <c r="C309">
+      <c r="D309">
         <v>1400</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>27143</v>
       </c>
-      <c r="B310">
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310">
         <v>-99</v>
       </c>
-      <c r="C310">
+      <c r="D310">
         <v>5149</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>27143</v>
       </c>
-      <c r="B311">
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311">
         <v>1</v>
       </c>
-      <c r="C311">
+      <c r="D311">
         <v>987</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>27143</v>
       </c>
-      <c r="B312">
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312">
         <v>2</v>
       </c>
-      <c r="C312">
+      <c r="D312">
         <v>856</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>27143</v>
       </c>
-      <c r="B313">
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313">
         <v>3</v>
       </c>
-      <c r="C313">
+      <c r="D313">
         <v>632</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>27143</v>
       </c>
-      <c r="B314">
-        <v>4</v>
+      <c r="B314" t="s">
+        <v>5</v>
       </c>
       <c r="C314">
+        <v>4</v>
+      </c>
+      <c r="D314">
         <v>539</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>27143</v>
       </c>
-      <c r="B315">
+      <c r="B315" t="s">
         <v>5</v>
       </c>
       <c r="C315">
+        <v>5</v>
+      </c>
+      <c r="D315">
         <v>375</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>27143</v>
       </c>
-      <c r="B316">
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316">
         <v>6</v>
       </c>
-      <c r="C316">
+      <c r="D316">
         <v>361</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>27143</v>
       </c>
-      <c r="B317">
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317">
         <v>7</v>
       </c>
-      <c r="C317">
+      <c r="D317">
         <v>307</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>27143</v>
       </c>
-      <c r="B318">
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318">
         <v>8</v>
       </c>
-      <c r="C318">
+      <c r="D318">
         <v>303</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>27143</v>
       </c>
-      <c r="B319">
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319">
         <v>9</v>
       </c>
-      <c r="C319">
+      <c r="D319">
         <v>279</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>27143</v>
       </c>
-      <c r="B320">
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320">
         <v>10</v>
       </c>
-      <c r="C320">
+      <c r="D320">
         <v>510</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>27145</v>
       </c>
-      <c r="B321">
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321">
         <v>-99</v>
       </c>
-      <c r="C321">
+      <c r="D321">
         <v>50216</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>27145</v>
       </c>
-      <c r="B322">
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322">
         <v>1</v>
       </c>
-      <c r="C322">
+      <c r="D322">
         <v>10328</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>27145</v>
       </c>
-      <c r="B323">
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323">
         <v>2</v>
       </c>
-      <c r="C323">
+      <c r="D323">
         <v>6647</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>27145</v>
       </c>
-      <c r="B324">
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324">
         <v>3</v>
       </c>
-      <c r="C324">
+      <c r="D324">
         <v>5728</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>27145</v>
       </c>
-      <c r="B325">
-        <v>4</v>
+      <c r="B325" t="s">
+        <v>5</v>
       </c>
       <c r="C325">
+        <v>4</v>
+      </c>
+      <c r="D325">
         <v>5197</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>27145</v>
       </c>
-      <c r="B326">
+      <c r="B326" t="s">
         <v>5</v>
       </c>
       <c r="C326">
+        <v>5</v>
+      </c>
+      <c r="D326">
         <v>4634</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>27145</v>
       </c>
-      <c r="B327">
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327">
         <v>6</v>
       </c>
-      <c r="C327">
+      <c r="D327">
         <v>4130</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>27145</v>
       </c>
-      <c r="B328">
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328">
         <v>7</v>
       </c>
-      <c r="C328">
+      <c r="D328">
         <v>3768</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>27145</v>
       </c>
-      <c r="B329">
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329">
         <v>8</v>
       </c>
-      <c r="C329">
+      <c r="D329">
         <v>3421</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>27145</v>
       </c>
-      <c r="B330">
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330">
         <v>9</v>
       </c>
-      <c r="C330">
+      <c r="D330">
         <v>2944</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>27145</v>
       </c>
-      <c r="B331">
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331">
         <v>10</v>
       </c>
-      <c r="C331">
+      <c r="D331">
         <v>3419</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>27147</v>
       </c>
-      <c r="B332">
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332">
         <v>-99</v>
       </c>
-      <c r="C332">
+      <c r="D332">
         <v>10925</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>27147</v>
       </c>
-      <c r="B333">
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333">
         <v>1</v>
       </c>
-      <c r="C333">
+      <c r="D333">
         <v>1697</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>27147</v>
       </c>
-      <c r="B334">
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334">
         <v>2</v>
       </c>
-      <c r="C334">
+      <c r="D334">
         <v>1614</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>27147</v>
       </c>
-      <c r="B335">
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335">
         <v>3</v>
       </c>
-      <c r="C335">
+      <c r="D335">
         <v>1501</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>27147</v>
       </c>
-      <c r="B336">
-        <v>4</v>
+      <c r="B336" t="s">
+        <v>5</v>
       </c>
       <c r="C336">
+        <v>4</v>
+      </c>
+      <c r="D336">
         <v>1330</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>27147</v>
       </c>
-      <c r="B337">
+      <c r="B337" t="s">
         <v>5</v>
       </c>
       <c r="C337">
+        <v>5</v>
+      </c>
+      <c r="D337">
         <v>1022</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>27147</v>
       </c>
-      <c r="B338">
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338">
         <v>6</v>
       </c>
-      <c r="C338">
+      <c r="D338">
         <v>860</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>27147</v>
       </c>
-      <c r="B339">
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339">
         <v>7</v>
       </c>
-      <c r="C339">
+      <c r="D339">
         <v>773</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>27147</v>
       </c>
-      <c r="B340">
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340">
         <v>8</v>
       </c>
-      <c r="C340">
+      <c r="D340">
         <v>693</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>27147</v>
       </c>
-      <c r="B341">
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341">
         <v>9</v>
       </c>
-      <c r="C341">
+      <c r="D341">
         <v>555</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>27147</v>
       </c>
-      <c r="B342">
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342">
         <v>10</v>
       </c>
-      <c r="C342">
+      <c r="D342">
         <v>880</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>27149</v>
       </c>
-      <c r="B343">
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343">
         <v>-99</v>
       </c>
-      <c r="C343">
+      <c r="D343">
         <v>3124</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>27149</v>
       </c>
-      <c r="B344">
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344">
         <v>1</v>
       </c>
-      <c r="C344">
+      <c r="D344">
         <v>573</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>27149</v>
       </c>
-      <c r="B345">
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345">
         <v>2</v>
       </c>
-      <c r="C345">
+      <c r="D345">
         <v>437</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>27149</v>
       </c>
-      <c r="B346">
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346">
         <v>3</v>
       </c>
-      <c r="C346">
+      <c r="D346">
         <v>356</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>27149</v>
       </c>
-      <c r="B347">
-        <v>4</v>
+      <c r="B347" t="s">
+        <v>5</v>
       </c>
       <c r="C347">
+        <v>4</v>
+      </c>
+      <c r="D347">
         <v>334</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>27149</v>
       </c>
-      <c r="B348">
+      <c r="B348" t="s">
         <v>5</v>
       </c>
       <c r="C348">
+        <v>5</v>
+      </c>
+      <c r="D348">
         <v>304</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>27149</v>
       </c>
-      <c r="B349">
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349">
         <v>6</v>
       </c>
-      <c r="C349">
+      <c r="D349">
         <v>239</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>27149</v>
       </c>
-      <c r="B350">
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350">
         <v>7</v>
       </c>
-      <c r="C350">
+      <c r="D350">
         <v>215</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>27149</v>
       </c>
-      <c r="B351">
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351">
         <v>8</v>
       </c>
-      <c r="C351">
+      <c r="D351">
         <v>194</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>27149</v>
       </c>
-      <c r="B352">
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352">
         <v>9</v>
       </c>
-      <c r="C352">
+      <c r="D352">
         <v>183</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>27149</v>
       </c>
-      <c r="B353">
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353">
         <v>10</v>
       </c>
-      <c r="C353">
+      <c r="D353">
         <v>289</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>27151</v>
       </c>
-      <c r="B354">
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354">
         <v>-99</v>
       </c>
-      <c r="C354">
+      <c r="D354">
         <v>3485</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>27151</v>
       </c>
-      <c r="B355">
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355">
         <v>1</v>
       </c>
-      <c r="C355">
+      <c r="D355">
         <v>760</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>27151</v>
       </c>
-      <c r="B356">
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356">
         <v>2</v>
       </c>
-      <c r="C356">
+      <c r="D356">
         <v>515</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>27151</v>
       </c>
-      <c r="B357">
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357">
         <v>3</v>
       </c>
-      <c r="C357">
+      <c r="D357">
         <v>402</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>27151</v>
       </c>
-      <c r="B358">
-        <v>4</v>
+      <c r="B358" t="s">
+        <v>5</v>
       </c>
       <c r="C358">
+        <v>4</v>
+      </c>
+      <c r="D358">
         <v>318</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>27151</v>
       </c>
-      <c r="B359">
+      <c r="B359" t="s">
         <v>5</v>
       </c>
       <c r="C359">
+        <v>5</v>
+      </c>
+      <c r="D359">
         <v>247</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>27151</v>
       </c>
-      <c r="B360">
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360">
         <v>6</v>
       </c>
-      <c r="C360">
+      <c r="D360">
         <v>261</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>27151</v>
       </c>
-      <c r="B361">
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361">
         <v>7</v>
       </c>
-      <c r="C361">
+      <c r="D361">
         <v>246</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>27151</v>
       </c>
-      <c r="B362">
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362">
         <v>8</v>
       </c>
-      <c r="C362">
+      <c r="D362">
         <v>221</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>27151</v>
       </c>
-      <c r="B363">
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363">
         <v>9</v>
       </c>
-      <c r="C363">
+      <c r="D363">
         <v>218</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>27151</v>
       </c>
-      <c r="B364">
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364">
         <v>10</v>
       </c>
-      <c r="C364">
+      <c r="D364">
         <v>297</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>27161</v>
       </c>
-      <c r="B365">
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365">
         <v>-99</v>
       </c>
-      <c r="C365">
+      <c r="D365">
         <v>6367</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>27161</v>
       </c>
-      <c r="B366">
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366">
         <v>1</v>
       </c>
-      <c r="C366">
+      <c r="D366">
         <v>1232</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>27161</v>
       </c>
-      <c r="B367">
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367">
         <v>2</v>
       </c>
-      <c r="C367">
+      <c r="D367">
         <v>980</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>27161</v>
       </c>
-      <c r="B368">
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368">
         <v>3</v>
       </c>
-      <c r="C368">
+      <c r="D368">
         <v>802</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>27161</v>
       </c>
-      <c r="B369">
-        <v>4</v>
+      <c r="B369" t="s">
+        <v>5</v>
       </c>
       <c r="C369">
+        <v>4</v>
+      </c>
+      <c r="D369">
         <v>725</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>27161</v>
       </c>
-      <c r="B370">
+      <c r="B370" t="s">
         <v>5</v>
       </c>
       <c r="C370">
+        <v>5</v>
+      </c>
+      <c r="D370">
         <v>566</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>27161</v>
       </c>
-      <c r="B371">
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371">
         <v>6</v>
       </c>
-      <c r="C371">
+      <c r="D371">
         <v>461</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>27161</v>
       </c>
-      <c r="B372">
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372">
         <v>7</v>
       </c>
-      <c r="C372">
+      <c r="D372">
         <v>403</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>27161</v>
       </c>
-      <c r="B373">
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373">
         <v>8</v>
       </c>
-      <c r="C373">
+      <c r="D373">
         <v>396</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>27161</v>
       </c>
-      <c r="B374">
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374">
         <v>9</v>
       </c>
-      <c r="C374">
+      <c r="D374">
         <v>305</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>27161</v>
       </c>
-      <c r="B375">
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375">
         <v>10</v>
       </c>
-      <c r="C375">
+      <c r="D375">
         <v>497</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>27163</v>
       </c>
-      <c r="B376">
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376">
         <v>-99</v>
       </c>
-      <c r="C376">
+      <c r="D376">
         <v>79670</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>27163</v>
       </c>
-      <c r="B377">
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377">
         <v>1</v>
       </c>
-      <c r="C377">
+      <c r="D377">
         <v>9409</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>27163</v>
       </c>
-      <c r="B378">
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378">
         <v>2</v>
       </c>
-      <c r="C378">
+      <c r="D378">
         <v>11647</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>27163</v>
       </c>
-      <c r="B379">
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379">
         <v>3</v>
       </c>
-      <c r="C379">
+      <c r="D379">
         <v>11694</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>27163</v>
       </c>
-      <c r="B380">
-        <v>4</v>
+      <c r="B380" t="s">
+        <v>5</v>
       </c>
       <c r="C380">
+        <v>4</v>
+      </c>
+      <c r="D380">
         <v>9913</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>27163</v>
       </c>
-      <c r="B381">
+      <c r="B381" t="s">
         <v>5</v>
       </c>
       <c r="C381">
+        <v>5</v>
+      </c>
+      <c r="D381">
         <v>8233</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>27163</v>
       </c>
-      <c r="B382">
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382">
         <v>6</v>
       </c>
-      <c r="C382">
+      <c r="D382">
         <v>6983</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>27163</v>
       </c>
-      <c r="B383">
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383">
         <v>7</v>
       </c>
-      <c r="C383">
+      <c r="D383">
         <v>6365</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>27163</v>
       </c>
-      <c r="B384">
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384">
         <v>8</v>
       </c>
-      <c r="C384">
+      <c r="D384">
         <v>5808</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>27163</v>
       </c>
-      <c r="B385">
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385">
         <v>9</v>
       </c>
-      <c r="C385">
+      <c r="D385">
         <v>4635</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>27163</v>
       </c>
-      <c r="B386">
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386">
         <v>10</v>
       </c>
-      <c r="C386">
+      <c r="D386">
         <v>4983</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>27171</v>
       </c>
-      <c r="B387">
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387">
         <v>-99</v>
       </c>
-      <c r="C387">
+      <c r="D387">
         <v>43010</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>27171</v>
       </c>
-      <c r="B388">
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388">
         <v>1</v>
       </c>
-      <c r="C388">
+      <c r="D388">
         <v>9938</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>27171</v>
       </c>
-      <c r="B389">
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389">
         <v>2</v>
       </c>
-      <c r="C389">
+      <c r="D389">
         <v>7911</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>27171</v>
       </c>
-      <c r="B390">
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390">
         <v>3</v>
       </c>
-      <c r="C390">
+      <c r="D390">
         <v>6053</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>27171</v>
       </c>
-      <c r="B391">
-        <v>4</v>
+      <c r="B391" t="s">
+        <v>5</v>
       </c>
       <c r="C391">
+        <v>4</v>
+      </c>
+      <c r="D391">
         <v>4352</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>27171</v>
       </c>
-      <c r="B392">
+      <c r="B392" t="s">
         <v>5</v>
       </c>
       <c r="C392">
+        <v>5</v>
+      </c>
+      <c r="D392">
         <v>3121</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>27171</v>
       </c>
-      <c r="B393">
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393">
         <v>6</v>
       </c>
-      <c r="C393">
+      <c r="D393">
         <v>2628</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>27171</v>
       </c>
-      <c r="B394">
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394">
         <v>7</v>
       </c>
-      <c r="C394">
+      <c r="D394">
         <v>2350</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>27171</v>
       </c>
-      <c r="B395">
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395">
         <v>8</v>
       </c>
-      <c r="C395">
+      <c r="D395">
         <v>2168</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>27171</v>
       </c>
-      <c r="B396">
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396">
         <v>9</v>
       </c>
-      <c r="C396">
+      <c r="D396">
         <v>1846</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>27171</v>
       </c>
-      <c r="B397">
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397">
         <v>10</v>
       </c>
-      <c r="C397">
+      <c r="D397">
         <v>2643</v>
       </c>
     </row>
@@ -4736,1210 +5933,1540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>27003</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>-99</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>112813</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>27003</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>18182</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27003</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>94631</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>27009</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>-99</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>13580</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>27009</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3786</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>27009</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>9794</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>27013</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>-99</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>21880</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>27013</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6351</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>27013</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>15529</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>27015</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>-99</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>9587</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>27015</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2081</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27015</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7506</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27019</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>-99</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>33081</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>27019</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4740</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>27019</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>28341</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>27025</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>-99</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>16062</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>27025</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2284</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>27025</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>13778</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>27037</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>-99</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>135336</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>27037</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>25307</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27037</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>110029</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>27039</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>-99</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>6751</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27039</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1174</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>27039</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5577</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27041</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
         <v>-99</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>13705</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27041</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2606</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27041</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>11099</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27043</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>-99</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5192</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27043</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1054</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27043</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>4138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>27047</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
         <v>-99</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>10915</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>27047</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2257</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27047</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>8658</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27051</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
         <v>-99</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>2153</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27051</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27051</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1743</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>27053</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
         <v>-99</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>435456</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>27053</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>122550</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>27053</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>312906</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>27059</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
         <v>-99</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>11722</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>27059</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>2023</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>27059</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>9699</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>27067</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
         <v>-99</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>14014</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>27067</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>3465</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>27067</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>10549</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>27079</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
         <v>-99</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>9738</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>27079</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
         <v>0</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1619</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>27079</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
         <v>1</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>8119</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>27085</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
         <v>-99</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>12706</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>27085</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
         <v>0</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>3123</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>27085</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>9583</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>27091</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
         <v>-99</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>7405</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>27091</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
         <v>0</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>1567</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>27091</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>5838</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>27093</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
         <v>-99</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>8044</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>27093</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
         <v>0</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>1510</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>27093</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>6534</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>27095</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
         <v>-99</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>8844</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>27095</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
         <v>0</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>1996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>27095</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
         <v>1</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>6848</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>27099</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
         <v>-99</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>12563</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>27099</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
         <v>0</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>3284</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>27099</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
         <v>1</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>9279</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>27103</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
         <v>-99</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>11220</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>27103</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
         <v>0</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>2655</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>27103</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
         <v>1</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>8565</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>27121</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
         <v>-99</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>4065</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>27121</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
         <v>0</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>822</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>27121</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
         <v>1</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>3243</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>27123</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
         <v>-99</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>174395</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>27123</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
         <v>0</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>53238</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>27123</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
         <v>1</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>121157</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>27129</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
         <v>-99</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>5004</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>27129</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
         <v>0</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1104</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>27129</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
         <v>1</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>3900</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>27131</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
         <v>-99</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>16908</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>27131</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
         <v>0</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>3118</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>27131</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>13790</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>27139</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
         <v>-99</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>44717</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>27139</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
         <v>0</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>6529</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>27139</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
         <v>1</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>38188</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>27141</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
         <v>-99</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>29541</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>27141</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
         <v>0</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>4374</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>27141</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
         <v>1</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>25167</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>27143</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
         <v>-99</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>5149</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>27143</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
         <v>0</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>1092</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>27143</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
         <v>1</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>4057</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>27145</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
         <v>-99</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>50216</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>27145</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
         <v>0</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>11596</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>27145</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
         <v>1</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>38620</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>27147</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
         <v>-99</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>10925</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>27147</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
         <v>0</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>2038</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>27147</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
         <v>1</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>8887</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>27149</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
         <v>-99</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>3124</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>27149</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
         <v>0</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>858</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>27149</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
         <v>1</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>2266</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>27151</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
         <v>-99</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>3485</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>27151</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
         <v>0</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>799</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>27151</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
         <v>1</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>2686</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>27161</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
         <v>-99</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>6367</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>27161</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
         <v>0</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1525</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>27161</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
         <v>1</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>4842</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>27163</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
         <v>-99</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>79670</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>27163</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
         <v>0</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>11931</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>27163</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
         <v>1</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>67739</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>27171</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
         <v>-99</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>43010</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>27171</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
         <v>0</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>6182</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>27171</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
         <v>1</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>36828</v>
       </c>
     </row>

--- a/data/mn_data_pull.xlsx
+++ b/data/mn_data_pull.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="700" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="1220" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="county_decile" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5936,7 +5936,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
